--- a/fuentes/contenidos/grado09/guion04/SolicitudGrafica_LE_09_04_REC120.xlsx
+++ b/fuentes/contenidos/grado09/guion04/SolicitudGrafica_LE_09_04_REC120.xlsx
@@ -395,9 +395,6 @@
     <t>Área:</t>
   </si>
   <si>
-    <t>CN_08_01_REC10</t>
-  </si>
-  <si>
     <t>CN_08_02_REC10_IMG01</t>
   </si>
   <si>
@@ -633,6 +630,9 @@
   </si>
   <si>
     <t>Si es posible, favor hacer que se vea un poco más naranjado el atardecer.</t>
+  </si>
+  <si>
+    <t>LE_09_04_REC120</t>
   </si>
 </sst>
 </file>
@@ -2412,7 +2412,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2470,7 +2470,7 @@
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
       <c r="L2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M2" s="2" t="str">
         <f ca="1">IF($N2&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N2,1,1,1),"")</f>
@@ -2501,7 +2501,7 @@
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
       <c r="L3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M3" s="2" t="str">
         <f ca="1">IF($N3&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N3,1,1,1),"")</f>
@@ -2521,7 +2521,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" s="88"/>
       <c r="E4" s="5"/>
@@ -2553,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" s="90"/>
       <c r="E5" s="5"/>
@@ -2562,7 +2562,7 @@
         <v>Motor del recurso</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H5" s="58"/>
       <c r="I5" s="58"/>
@@ -2610,7 +2610,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -2706,21 +2706,21 @@
         <v>IMG01</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso F6B</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_REC10_IMG01n.jpg</v>
+        <v>LE_09_04_REC120_IMG01n.jpg</v>
       </c>
       <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2728,14 +2728,14 @@
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" ref="H10" ca="1" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_08_01_REC10_IMG01a.jpg</v>
+        <v>LE_09_04_REC120_IMG01a.jpg</v>
       </c>
       <c r="I10" s="13" t="str">
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
@@ -2749,21 +2749,21 @@
         <v>IMG02</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6B</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_REC10_IMG02n.jpg</v>
+        <v>LE_09_04_REC120_IMG02n.jpg</v>
       </c>
       <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2771,14 +2771,14 @@
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_08_01_REC10_IMG02a.jpg</v>
+        <v>LE_09_04_REC120_IMG02a.jpg</v>
       </c>
       <c r="I11" s="13" t="str">
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K11" s="65"/>
       <c r="O11" s="2" t="str">
@@ -2792,21 +2792,21 @@
         <v>IMG03</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6B</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CN_08_01_REC10_IMG03n.jpg</v>
+        <v>LE_09_04_REC120_IMG03n.jpg</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2814,14 +2814,14 @@
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG03a.jpg</v>
+        <v>LE_09_04_REC120_IMG03a.jpg</v>
       </c>
       <c r="I12" s="13" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
       <c r="J12" s="64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
@@ -2835,21 +2835,21 @@
         <v>IMG04</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6B</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F13" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CN_08_01_REC10_IMG04n.jpg</v>
+        <v>LE_09_04_REC120_IMG04n.jpg</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2857,14 +2857,14 @@
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG04a.jpg</v>
+        <v>LE_09_04_REC120_IMG04a.jpg</v>
       </c>
       <c r="I13" s="13" t="str">
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
@@ -2878,21 +2878,21 @@
         <v>IMG05</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F6B</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F14" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>CN_08_01_REC10_IMG05n.jpg</v>
+        <v>LE_09_04_REC120_IMG05n.jpg</v>
       </c>
       <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2900,17 +2900,17 @@
       </c>
       <c r="H14" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG05a.jpg</v>
+        <v>LE_09_04_REC120_IMG05a.jpg</v>
       </c>
       <c r="I14" s="13" t="str">
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 458 px</v>
       </c>
       <c r="J14" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="K14" s="64" t="s">
         <v>200</v>
-      </c>
-      <c r="K14" s="64" t="s">
-        <v>201</v>
       </c>
       <c r="O14" s="2" t="str">
         <f>'Definición técnica de imagenes'!A22</f>
@@ -6694,7 +6694,7 @@
         <v>56</v>
       </c>
       <c r="B1" s="108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="108" t="s">
         <v>63</v>
@@ -6736,7 +6736,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>70</v>
@@ -6752,7 +6752,7 @@
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" s="40"/>
     </row>
@@ -6761,7 +6761,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>74</v>
@@ -6779,10 +6779,10 @@
         <v>76</v>
       </c>
       <c r="H4" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
@@ -6790,7 +6790,7 @@
         <v>77</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>78</v>
@@ -6808,10 +6808,10 @@
         <v>76</v>
       </c>
       <c r="H5" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
@@ -6819,7 +6819,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>79</v>
@@ -6837,10 +6837,10 @@
         <v>76</v>
       </c>
       <c r="H6" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I6" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
@@ -6864,7 +6864,7 @@
       </c>
       <c r="G7" s="42"/>
       <c r="H7" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I7" s="42"/>
     </row>
@@ -6873,7 +6873,7 @@
         <v>80</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>81</v>
@@ -6891,10 +6891,10 @@
         <v>76</v>
       </c>
       <c r="H8" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
@@ -6902,7 +6902,7 @@
         <v>82</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>83</v>
@@ -6920,10 +6920,10 @@
         <v>76</v>
       </c>
       <c r="H9" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
@@ -6931,7 +6931,7 @@
         <v>84</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>85</v>
@@ -6949,10 +6949,10 @@
         <v>76</v>
       </c>
       <c r="H10" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
@@ -6960,7 +6960,7 @@
         <v>86</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>87</v>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I11" s="42"/>
     </row>
@@ -6985,7 +6985,7 @@
         <v>89</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="73" t="s">
         <v>90</v>
@@ -7003,10 +7003,10 @@
         <v>76</v>
       </c>
       <c r="H12" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I12" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
@@ -7014,7 +7014,7 @@
         <v>91</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>92</v>
@@ -7032,10 +7032,10 @@
         <v>76</v>
       </c>
       <c r="H13" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="42" t="s">
         <v>124</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.75" customHeight="1">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="H14" s="42"/>
       <c r="I14" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="77" customFormat="1" ht="14.75" customHeight="1">
@@ -7080,7 +7080,7 @@
       </c>
       <c r="G15" s="75"/>
       <c r="H15" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I15" s="75"/>
       <c r="J15" s="77" t="s">
@@ -7106,10 +7106,10 @@
         <v>116</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I16" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J16" s="47" t="s">
         <v>102</v>
@@ -7128,10 +7128,10 @@
         <v>72</v>
       </c>
       <c r="F17" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="42" t="s">
         <v>157</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>158</v>
       </c>
       <c r="H17" s="48" t="s">
         <v>104</v>
@@ -7145,13 +7145,13 @@
     </row>
     <row r="18" spans="1:10" ht="14.75" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="44" t="s">
         <v>71</v>
@@ -7164,17 +7164,17 @@
       </c>
       <c r="G18" s="44"/>
       <c r="H18" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:10" ht="14.75" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="44" t="s">
@@ -7184,21 +7184,21 @@
         <v>93</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="49"/>
     </row>
     <row r="20" spans="1:10" ht="14.75" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="44" t="s">
@@ -7208,21 +7208,21 @@
         <v>93</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G20" s="44"/>
       <c r="H20" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I20" s="44"/>
       <c r="J20" s="49"/>
     </row>
     <row r="21" spans="1:10" ht="14.75" customHeight="1">
       <c r="A21" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="44"/>
       <c r="D21" s="44" t="s">
@@ -7232,24 +7232,24 @@
         <v>93</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G21" s="44"/>
       <c r="H21" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I21" s="72"/>
       <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="14.75" customHeight="1">
       <c r="A22" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="44" t="s">
         <v>133</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>134</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>71</v>
@@ -7258,22 +7258,22 @@
         <v>93</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G22" s="44"/>
       <c r="H22" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.75" customHeight="1">
       <c r="A23" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="44" t="s">
         <v>133</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>134</v>
       </c>
       <c r="D23" s="44" t="s">
         <v>71</v>
@@ -7282,24 +7282,24 @@
         <v>93</v>
       </c>
       <c r="F23" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="46" t="s">
-        <v>177</v>
-      </c>
       <c r="H23" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="I23" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.75" customHeight="1">
       <c r="A24" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C24" s="44"/>
       <c r="D24" s="44" t="s">
@@ -7309,23 +7309,23 @@
         <v>93</v>
       </c>
       <c r="F24" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="46" t="s">
         <v>176</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>177</v>
       </c>
       <c r="H24" s="44"/>
       <c r="I24" s="72"/>
     </row>
     <row r="25" spans="1:10" ht="14.75" customHeight="1">
       <c r="A25" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25" s="44" t="s">
         <v>71</v>
@@ -7334,22 +7334,22 @@
         <v>93</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="46"/>
       <c r="H25" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.75" customHeight="1">
       <c r="A26" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" s="44" t="s">
         <v>71</v>
@@ -7358,27 +7358,27 @@
         <v>93</v>
       </c>
       <c r="F26" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="46" t="s">
-        <v>177</v>
-      </c>
       <c r="H26" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="I26" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.75" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D27" s="44" t="s">
         <v>71</v>
@@ -7387,22 +7387,22 @@
         <v>93</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G27" s="46"/>
       <c r="H27" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.75" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D28" s="44" t="s">
         <v>71</v>
@@ -7411,22 +7411,22 @@
         <v>93</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G28" s="46"/>
       <c r="H28" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.75" customHeight="1">
       <c r="A29" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" s="44" t="s">
         <v>71</v>
@@ -7435,27 +7435,27 @@
         <v>93</v>
       </c>
       <c r="F29" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="G29" s="46" t="s">
-        <v>177</v>
-      </c>
       <c r="H29" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="I29" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.75" customHeight="1">
       <c r="A30" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D30" s="44" t="s">
         <v>71</v>
@@ -7464,7 +7464,7 @@
         <v>93</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
@@ -7472,13 +7472,13 @@
     </row>
     <row r="31" spans="1:10" ht="14.75" customHeight="1">
       <c r="A31" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" s="44"/>
       <c r="E31" s="44"/>
@@ -7489,10 +7489,10 @@
     </row>
     <row r="32" spans="1:10" ht="14.75" customHeight="1">
       <c r="A32" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
@@ -7504,10 +7504,10 @@
     </row>
     <row r="33" spans="1:9" ht="14.75" customHeight="1">
       <c r="A33" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C33" s="44"/>
       <c r="D33" s="44" t="s">
@@ -7517,7 +7517,7 @@
         <v>93</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
@@ -7525,13 +7525,13 @@
     </row>
     <row r="34" spans="1:9" ht="14.75" customHeight="1">
       <c r="A34" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D34" s="44"/>
       <c r="E34" s="44"/>
@@ -7545,10 +7545,10 @@
         <v>95</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D35" s="44" t="s">
         <v>71</v>
@@ -7557,16 +7557,16 @@
         <v>93</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H35" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="I35" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.75" customHeight="1">
@@ -7574,10 +7574,10 @@
         <v>95</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36" s="44" t="s">
         <v>71</v>
@@ -7586,27 +7586,27 @@
         <v>93</v>
       </c>
       <c r="F36" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="G36" s="44" t="s">
-        <v>182</v>
-      </c>
       <c r="H36" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="I36" s="44" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.75" customHeight="1">
       <c r="A37" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D37" s="44" t="s">
         <v>71</v>
@@ -7615,7 +7615,7 @@
         <v>93</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G37" s="44"/>
       <c r="H37" s="44"/>
@@ -7623,13 +7623,13 @@
     </row>
     <row r="38" spans="1:9" ht="14.75" customHeight="1">
       <c r="A38" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B38" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="44" t="s">
         <v>170</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>171</v>
       </c>
       <c r="D38" s="44" t="s">
         <v>71</v>
@@ -7638,7 +7638,7 @@
         <v>93</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G38" s="44"/>
       <c r="H38" s="44"/>
@@ -7656,7 +7656,7 @@
       </c>
       <c r="B41" s="51"/>
       <c r="C41" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="53" t="s">
         <v>22</v>
@@ -7670,10 +7670,10 @@
       </c>
       <c r="B42" s="54"/>
       <c r="C42" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E42" s="55"/>
       <c r="F42" s="55"/>
@@ -7684,10 +7684,10 @@
       </c>
       <c r="B43" s="54"/>
       <c r="C43" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="56" t="s">
         <v>128</v>
-      </c>
-      <c r="D43" s="56" t="s">
-        <v>129</v>
       </c>
       <c r="E43" s="55"/>
       <c r="F43" s="55"/>
@@ -7698,10 +7698,10 @@
       </c>
       <c r="B44" s="54"/>
       <c r="C44" s="55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E44" s="55"/>
       <c r="F44" s="55"/>
@@ -7712,21 +7712,21 @@
       </c>
       <c r="B45" s="54"/>
       <c r="C45" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="56" t="s">
         <v>131</v>
-      </c>
-      <c r="D45" s="56" t="s">
-        <v>132</v>
       </c>
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
     </row>
     <row r="46" spans="1:9" ht="45">
       <c r="A46" s="54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B46" s="54"/>
       <c r="C46" s="55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D46" s="56" t="s">
         <v>113</v>
